--- a/Code/Results/Cases/Case_4_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_122/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.999091611893164</v>
+        <v>1.036366119186613</v>
       </c>
       <c r="D2">
-        <v>1.016779247820353</v>
+        <v>1.03675451196062</v>
       </c>
       <c r="E2">
-        <v>1.014231083033596</v>
+        <v>1.049606669417961</v>
       </c>
       <c r="F2">
-        <v>1.016021629508965</v>
+        <v>1.056448385976435</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045031704315122</v>
+        <v>1.033266918840126</v>
       </c>
       <c r="J2">
-        <v>1.021299526679842</v>
+        <v>1.041474828900946</v>
       </c>
       <c r="K2">
-        <v>1.02800966749505</v>
+        <v>1.039547348927932</v>
       </c>
       <c r="L2">
-        <v>1.025495653560722</v>
+        <v>1.052363258609685</v>
       </c>
       <c r="M2">
-        <v>1.027262180409243</v>
+        <v>1.059186068828082</v>
       </c>
       <c r="N2">
-        <v>1.022749889152419</v>
+        <v>1.042953842616818</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004675372868948</v>
+        <v>1.037513624083608</v>
       </c>
       <c r="D3">
-        <v>1.02080751078018</v>
+        <v>1.037579487872779</v>
       </c>
       <c r="E3">
-        <v>1.019624889772573</v>
+        <v>1.050777947643711</v>
       </c>
       <c r="F3">
-        <v>1.022005082213101</v>
+        <v>1.05776394337133</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046579702370033</v>
+        <v>1.033480814666864</v>
       </c>
       <c r="J3">
-        <v>1.02503938890931</v>
+        <v>1.042265270926398</v>
       </c>
       <c r="K3">
-        <v>1.031180901819358</v>
+        <v>1.040181951009288</v>
       </c>
       <c r="L3">
-        <v>1.030012676341622</v>
+        <v>1.053345890141792</v>
       </c>
       <c r="M3">
-        <v>1.032363937908491</v>
+        <v>1.060313989994319</v>
       </c>
       <c r="N3">
-        <v>1.026495062415222</v>
+        <v>1.043745407160612</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008199268744939</v>
+        <v>1.038255734688324</v>
       </c>
       <c r="D4">
-        <v>1.023349462734906</v>
+        <v>1.03811248070693</v>
       </c>
       <c r="E4">
-        <v>1.023034517938783</v>
+        <v>1.051535847457616</v>
       </c>
       <c r="F4">
-        <v>1.025788652279875</v>
+        <v>1.058615471772264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04754030816447</v>
+        <v>1.033617091008566</v>
       </c>
       <c r="J4">
-        <v>1.027395536692033</v>
+        <v>1.042775812769769</v>
       </c>
       <c r="K4">
-        <v>1.033174016937722</v>
+        <v>1.04059111487002</v>
       </c>
       <c r="L4">
-        <v>1.032862663555537</v>
+        <v>1.053981148218219</v>
       </c>
       <c r="M4">
-        <v>1.035585483708526</v>
+        <v>1.061043558205735</v>
       </c>
       <c r="N4">
-        <v>1.028854556198051</v>
+        <v>1.04425667403196</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009660298818234</v>
+        <v>1.038567623322632</v>
       </c>
       <c r="D5">
-        <v>1.024403220806652</v>
+        <v>1.038336354339919</v>
       </c>
       <c r="E5">
-        <v>1.024449484763657</v>
+        <v>1.051854470842395</v>
       </c>
       <c r="F5">
-        <v>1.027359115489943</v>
+        <v>1.058973521760297</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04793459593616</v>
+        <v>1.033673871953995</v>
       </c>
       <c r="J5">
-        <v>1.028371390892822</v>
+        <v>1.042990223389462</v>
       </c>
       <c r="K5">
-        <v>1.033998331351678</v>
+        <v>1.040762776678862</v>
       </c>
       <c r="L5">
-        <v>1.034044082430946</v>
+        <v>1.054248075256152</v>
       </c>
       <c r="M5">
-        <v>1.036921571316441</v>
+        <v>1.06135020486955</v>
       </c>
       <c r="N5">
-        <v>1.029831796223738</v>
+        <v>1.044471389139326</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009904440991375</v>
+        <v>1.03861998528982</v>
       </c>
       <c r="D6">
-        <v>1.024579295344087</v>
+        <v>1.038373932186733</v>
       </c>
       <c r="E6">
-        <v>1.024686005896355</v>
+        <v>1.051907969281386</v>
       </c>
       <c r="F6">
-        <v>1.027621648016266</v>
+        <v>1.059033643932155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048000246239506</v>
+        <v>1.033683375838186</v>
       </c>
       <c r="J6">
-        <v>1.028534397620168</v>
+        <v>1.043026210928163</v>
       </c>
       <c r="K6">
-        <v>1.034135954492065</v>
+        <v>1.040791578896891</v>
       </c>
       <c r="L6">
-        <v>1.034241487712114</v>
+        <v>1.054292885567655</v>
       </c>
       <c r="M6">
-        <v>1.037144858806475</v>
+        <v>1.061401688490965</v>
       </c>
       <c r="N6">
-        <v>1.029995034439333</v>
+        <v>1.044507427784459</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008218870131159</v>
+        <v>1.038259902529592</v>
       </c>
       <c r="D7">
-        <v>1.023363600813118</v>
+        <v>1.038115472889513</v>
       </c>
       <c r="E7">
-        <v>1.0230534961858</v>
+        <v>1.051540104908309</v>
       </c>
       <c r="F7">
-        <v>1.025809714851202</v>
+        <v>1.058620255786642</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047545613831472</v>
+        <v>1.033617851720912</v>
       </c>
       <c r="J7">
-        <v>1.027408632979431</v>
+        <v>1.042778678603095</v>
       </c>
       <c r="K7">
-        <v>1.0331850842248</v>
+        <v>1.040593410001078</v>
       </c>
       <c r="L7">
-        <v>1.032878514495073</v>
+        <v>1.05398471544132</v>
       </c>
       <c r="M7">
-        <v>1.035603407248433</v>
+        <v>1.061047655882531</v>
       </c>
       <c r="N7">
-        <v>1.02886767108368</v>
+        <v>1.044259543935098</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000997714044352</v>
+        <v>1.03675400795476</v>
       </c>
       <c r="D8">
-        <v>1.018154360524155</v>
+        <v>1.03703348668892</v>
       </c>
       <c r="E8">
-        <v>1.016071139808973</v>
+        <v>1.05000250819363</v>
       </c>
       <c r="F8">
-        <v>1.018062602014898</v>
+        <v>1.056892928860897</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045563530431912</v>
+        <v>1.033339646643573</v>
       </c>
       <c r="J8">
-        <v>1.022577014272653</v>
+        <v>1.04174215488349</v>
       </c>
       <c r="K8">
-        <v>1.029093908850167</v>
+        <v>1.03976211943519</v>
       </c>
       <c r="L8">
-        <v>1.02703773028468</v>
+        <v>1.052695462245807</v>
       </c>
       <c r="M8">
-        <v>1.029003338536071</v>
+        <v>1.059567312246512</v>
       </c>
       <c r="N8">
-        <v>1.024029190924143</v>
+        <v>1.04322154823292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9875449406170833</v>
+        <v>1.034097282994934</v>
       </c>
       <c r="D9">
-        <v>1.008451772683801</v>
+        <v>1.035120586224591</v>
       </c>
       <c r="E9">
-        <v>1.003110035528255</v>
+        <v>1.047293044777958</v>
       </c>
       <c r="F9">
-        <v>1.003690331615238</v>
+        <v>1.053851187693952</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041742970015958</v>
+        <v>1.032833112822083</v>
       </c>
       <c r="J9">
-        <v>1.013545317656353</v>
+        <v>1.039908533325197</v>
       </c>
       <c r="K9">
-        <v>1.02140919806594</v>
+        <v>1.038286035434325</v>
       </c>
       <c r="L9">
-        <v>1.016152855297877</v>
+        <v>1.050419217990098</v>
       </c>
       <c r="M9">
-        <v>1.016723818168451</v>
+        <v>1.056956611499878</v>
       </c>
       <c r="N9">
-        <v>1.014984668262698</v>
+        <v>1.041385322721695</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9780178342251018</v>
+        <v>1.032323918061507</v>
       </c>
       <c r="D10">
-        <v>1.001588305748519</v>
+        <v>1.033841065450837</v>
       </c>
       <c r="E10">
-        <v>0.9939655724360493</v>
+        <v>1.04548663998973</v>
       </c>
       <c r="F10">
-        <v>0.9935541165672022</v>
+        <v>1.051824616758407</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038954943000833</v>
+        <v>1.032484463323707</v>
       </c>
       <c r="J10">
-        <v>1.007131592536801</v>
+        <v>1.038681270974726</v>
       </c>
       <c r="K10">
-        <v>1.015928941938975</v>
+        <v>1.037294395419505</v>
       </c>
       <c r="L10">
-        <v>1.008444641853396</v>
+        <v>1.048898682844533</v>
       </c>
       <c r="M10">
-        <v>1.008040736967196</v>
+        <v>1.055214612546413</v>
       </c>
       <c r="N10">
-        <v>1.008561834917812</v>
+        <v>1.040156317517917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9737426921944021</v>
+        <v>1.031555483021681</v>
       </c>
       <c r="D11">
-        <v>0.9985118362966202</v>
+        <v>1.03328600507769</v>
       </c>
       <c r="E11">
-        <v>0.9898709759545161</v>
+        <v>1.044704404938441</v>
       </c>
       <c r="F11">
-        <v>0.989015909638159</v>
+        <v>1.050947362188706</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03768539151846</v>
+        <v>1.032330893789302</v>
       </c>
       <c r="J11">
-        <v>1.004250125486873</v>
+        <v>1.038148690653748</v>
       </c>
       <c r="K11">
-        <v>1.013461871879778</v>
+        <v>1.036863199110112</v>
       </c>
       <c r="L11">
-        <v>1.004986472661969</v>
+        <v>1.048239536948772</v>
       </c>
       <c r="M11">
-        <v>1.004147985832911</v>
+        <v>1.054459923725731</v>
       </c>
       <c r="N11">
-        <v>1.005676275854164</v>
+        <v>1.039622980871796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9721305593226324</v>
+        <v>1.031269966350654</v>
       </c>
       <c r="D12">
-        <v>0.9973523707069422</v>
+        <v>1.033079677238012</v>
       </c>
       <c r="E12">
-        <v>0.9883283157457647</v>
+        <v>1.044413838761693</v>
       </c>
       <c r="F12">
-        <v>0.9873061444108294</v>
+        <v>1.050621548182855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037203973492256</v>
+        <v>1.032273460139957</v>
       </c>
       <c r="J12">
-        <v>1.003163098211264</v>
+        <v>1.03795069001994</v>
       </c>
       <c r="K12">
-        <v>1.012530471513493</v>
+        <v>1.036702761052387</v>
       </c>
       <c r="L12">
-        <v>1.003682595863977</v>
+        <v>1.047994587474765</v>
       </c>
       <c r="M12">
-        <v>1.002680647510741</v>
+        <v>1.054179537937757</v>
       </c>
       <c r="N12">
-        <v>1.004587704875139</v>
+        <v>1.039424699054377</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9724774884796333</v>
+        <v>1.031331214556985</v>
       </c>
       <c r="D13">
-        <v>0.9976018544328106</v>
+        <v>1.033123942224298</v>
       </c>
       <c r="E13">
-        <v>0.9886602306549425</v>
+        <v>1.044476166639893</v>
       </c>
       <c r="F13">
-        <v>0.9876740126910034</v>
+        <v>1.05069143473712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037307693365909</v>
+        <v>1.032285797552943</v>
       </c>
       <c r="J13">
-        <v>1.003397044008769</v>
+        <v>1.037993169837916</v>
       </c>
       <c r="K13">
-        <v>1.012730954916637</v>
+        <v>1.036737187904738</v>
       </c>
       <c r="L13">
-        <v>1.003963179456823</v>
+        <v>1.048047135122161</v>
       </c>
       <c r="M13">
-        <v>1.002996389258457</v>
+        <v>1.054239684421053</v>
       </c>
       <c r="N13">
-        <v>1.00482198290251</v>
+        <v>1.039467239198567</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.973609935604385</v>
+        <v>1.031531883884682</v>
       </c>
       <c r="D14">
-        <v>0.9984163419980999</v>
+        <v>1.033268953092794</v>
       </c>
       <c r="E14">
-        <v>0.9897439117358945</v>
+        <v>1.044680386846535</v>
       </c>
       <c r="F14">
-        <v>0.9888750811857525</v>
+        <v>1.050920429551512</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037645801276208</v>
+        <v>1.032326154284967</v>
       </c>
       <c r="J14">
-        <v>1.004160619057493</v>
+        <v>1.03813232746875</v>
       </c>
       <c r="K14">
-        <v>1.013385193872749</v>
+        <v>1.036849942814067</v>
       </c>
       <c r="L14">
-        <v>1.004879096431029</v>
+        <v>1.048219291669887</v>
       </c>
       <c r="M14">
-        <v>1.004027140428098</v>
+        <v>1.054436748199477</v>
       </c>
       <c r="N14">
-        <v>1.005586642315388</v>
+        <v>1.039606594449198</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9743044210755124</v>
+        <v>1.031655511463559</v>
       </c>
       <c r="D15">
-        <v>0.9989159258968825</v>
+        <v>1.03335827869116</v>
       </c>
       <c r="E15">
-        <v>0.9904086758338774</v>
+        <v>1.044806212377476</v>
       </c>
       <c r="F15">
-        <v>0.9896118567261274</v>
+        <v>1.051061525702511</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037852800122465</v>
+        <v>1.032350967571643</v>
       </c>
       <c r="J15">
-        <v>1.004628833743422</v>
+        <v>1.038218043642982</v>
       </c>
       <c r="K15">
-        <v>1.013786273782962</v>
+        <v>1.036919378699342</v>
       </c>
       <c r="L15">
-        <v>1.005440818130331</v>
+        <v>1.048325347935922</v>
       </c>
       <c r="M15">
-        <v>1.004659339883752</v>
+        <v>1.054558157589399</v>
       </c>
       <c r="N15">
-        <v>1.006055521919875</v>
+        <v>1.039692432350229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9782982676768955</v>
+        <v>1.032374904664133</v>
       </c>
       <c r="D16">
-        <v>1.001790193242731</v>
+        <v>1.033877881455291</v>
       </c>
       <c r="E16">
-        <v>0.9942343514550237</v>
+        <v>1.045538553153522</v>
       </c>
       <c r="F16">
-        <v>0.9938520213930504</v>
+        <v>1.051882842624554</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039037845409245</v>
+        <v>1.032494600392853</v>
       </c>
       <c r="J16">
-        <v>1.007320541124731</v>
+        <v>1.038716591876735</v>
       </c>
       <c r="K16">
-        <v>1.016090617302408</v>
+        <v>1.037322974314394</v>
       </c>
       <c r="L16">
-        <v>1.008671506243936</v>
+        <v>1.048942412377281</v>
       </c>
       <c r="M16">
-        <v>1.008296166790017</v>
+        <v>1.055264690341931</v>
       </c>
       <c r="N16">
-        <v>1.008751051834409</v>
+        <v>1.040191688579658</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9807622740968115</v>
+        <v>1.032826010590239</v>
       </c>
       <c r="D17">
-        <v>1.003564464099234</v>
+        <v>1.034203541230458</v>
       </c>
       <c r="E17">
-        <v>0.9965969661908733</v>
+        <v>1.045997916588239</v>
       </c>
       <c r="F17">
-        <v>0.9964707049980729</v>
+        <v>1.052398102121705</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039764178728599</v>
+        <v>1.032584000723579</v>
       </c>
       <c r="J17">
-        <v>1.00898034481173</v>
+        <v>1.03902900458596</v>
       </c>
       <c r="K17">
-        <v>1.017510282668747</v>
+        <v>1.037575654219314</v>
       </c>
       <c r="L17">
-        <v>1.010664927176057</v>
+        <v>1.04932928028669</v>
       </c>
       <c r="M17">
-        <v>1.010540899819247</v>
+        <v>1.055707773445878</v>
       </c>
       <c r="N17">
-        <v>1.010413212633026</v>
+        <v>1.040504544950764</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9821851487774073</v>
+        <v>1.033089079509506</v>
       </c>
       <c r="D18">
-        <v>1.00458935321431</v>
+        <v>1.034393394744269</v>
       </c>
       <c r="E18">
-        <v>0.9979621214572821</v>
+        <v>1.04626585081602</v>
       </c>
       <c r="F18">
-        <v>0.9979838676406916</v>
+        <v>1.052698669895432</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04018185921645</v>
+        <v>1.032635895380184</v>
       </c>
       <c r="J18">
-        <v>1.009938494893693</v>
+        <v>1.039211117053682</v>
       </c>
       <c r="K18">
-        <v>1.0183293358897</v>
+        <v>1.037722863574654</v>
       </c>
       <c r="L18">
-        <v>1.011816124300712</v>
+        <v>1.049554862097837</v>
       </c>
       <c r="M18">
-        <v>1.011837493140703</v>
+        <v>1.055966178650981</v>
       </c>
       <c r="N18">
-        <v>1.011372723398006</v>
+        <v>1.040686916039079</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9826679275432835</v>
+        <v>1.033178770195906</v>
       </c>
       <c r="D19">
-        <v>1.004937145024269</v>
+        <v>1.034458113225228</v>
       </c>
       <c r="E19">
-        <v>0.9984254552745153</v>
+        <v>1.046357208721163</v>
       </c>
       <c r="F19">
-        <v>0.9984974443191681</v>
+        <v>1.052801160154326</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040323277660285</v>
+        <v>1.03265354754053</v>
       </c>
       <c r="J19">
-        <v>1.010263536056309</v>
+        <v>1.039273193638795</v>
       </c>
       <c r="K19">
-        <v>1.018607108575177</v>
+        <v>1.037773028572739</v>
       </c>
       <c r="L19">
-        <v>1.012206733178552</v>
+        <v>1.049631767551845</v>
       </c>
       <c r="M19">
-        <v>1.012277481340047</v>
+        <v>1.056054281815671</v>
       </c>
       <c r="N19">
-        <v>1.011698226156356</v>
+        <v>1.040749080780064</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804994040017293</v>
+        <v>1.032777616745862</v>
       </c>
       <c r="D20">
-        <v>1.003375144406444</v>
+        <v>1.034168611192355</v>
       </c>
       <c r="E20">
-        <v>0.9963448262980771</v>
+        <v>1.045948631736776</v>
       </c>
       <c r="F20">
-        <v>0.9961912326845481</v>
+        <v>1.052342817019371</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039686871691508</v>
+        <v>1.032574434881883</v>
       </c>
       <c r="J20">
-        <v>1.008803303720153</v>
+        <v>1.038995497311775</v>
       </c>
       <c r="K20">
-        <v>1.017358904463409</v>
+        <v>1.037548562116875</v>
       </c>
       <c r="L20">
-        <v>1.010452253472202</v>
+        <v>1.049287780447909</v>
       </c>
       <c r="M20">
-        <v>1.010301386935929</v>
+        <v>1.055660238732218</v>
       </c>
       <c r="N20">
-        <v>1.010235920122792</v>
+        <v>1.040470990092407</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9732771389365463</v>
+        <v>1.031472794151421</v>
       </c>
       <c r="D21">
-        <v>0.9981769661648361</v>
+        <v>1.033226255253722</v>
       </c>
       <c r="E21">
-        <v>0.9894254073990757</v>
+        <v>1.044620249355255</v>
       </c>
       <c r="F21">
-        <v>0.9885220751535493</v>
+        <v>1.050852995272011</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037546512982004</v>
+        <v>1.032314281030525</v>
       </c>
       <c r="J21">
-        <v>1.003936235828497</v>
+        <v>1.03809135389904</v>
       </c>
       <c r="K21">
-        <v>1.013192958987156</v>
+        <v>1.036816746832763</v>
       </c>
       <c r="L21">
-        <v>1.004609926839253</v>
+        <v>1.048168598998633</v>
       </c>
       <c r="M21">
-        <v>1.003724212721343</v>
+        <v>1.054378719520911</v>
       </c>
       <c r="N21">
-        <v>1.005361940436469</v>
+        <v>1.039565562692319</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9685955279895567</v>
+        <v>1.030651903616047</v>
       </c>
       <c r="D22">
-        <v>0.9948113050477407</v>
+        <v>1.032632869114879</v>
       </c>
       <c r="E22">
-        <v>0.9849482542734737</v>
+        <v>1.043784988233613</v>
       </c>
       <c r="F22">
-        <v>0.9835599465913046</v>
+        <v>1.049916500470267</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036143518717367</v>
+        <v>1.032148449184191</v>
       </c>
       <c r="J22">
-        <v>1.000778769505789</v>
+        <v>1.037521860772578</v>
       </c>
       <c r="K22">
-        <v>1.010486256570052</v>
+        <v>1.036355048289723</v>
       </c>
       <c r="L22">
-        <v>1.000823904788078</v>
+        <v>1.047464268681232</v>
       </c>
       <c r="M22">
-        <v>0.9994642739551175</v>
+        <v>1.053572625058251</v>
       </c>
       <c r="N22">
-        <v>1.002199990149417</v>
+        <v>1.038995260820296</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9710912654233669</v>
+        <v>1.031087121014747</v>
       </c>
       <c r="D23">
-        <v>0.9966051010387355</v>
+        <v>1.032947518839871</v>
       </c>
       <c r="E23">
-        <v>0.9873342086943245</v>
+        <v>1.044227781704523</v>
       </c>
       <c r="F23">
-        <v>0.9862043552245728</v>
+        <v>1.050412934438926</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036892875865113</v>
+        <v>1.032236574327925</v>
       </c>
       <c r="J23">
-        <v>1.002462208924946</v>
+        <v>1.037823857146814</v>
       </c>
       <c r="K23">
-        <v>1.011929734248404</v>
+        <v>1.036599953153689</v>
       </c>
       <c r="L23">
-        <v>1.002842084610768</v>
+        <v>1.047837710256895</v>
       </c>
       <c r="M23">
-        <v>1.001734873059539</v>
+        <v>1.053999985031557</v>
       </c>
       <c r="N23">
-        <v>1.003885820245642</v>
+        <v>1.039297686064023</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9806182278716575</v>
+        <v>1.032799484005875</v>
       </c>
       <c r="D24">
-        <v>1.003460720694552</v>
+        <v>1.034184394876552</v>
       </c>
       <c r="E24">
-        <v>0.9964587972746021</v>
+        <v>1.045970901453687</v>
       </c>
       <c r="F24">
-        <v>0.9963175581727616</v>
+        <v>1.052367797897586</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039721821849923</v>
+        <v>1.032578758049534</v>
       </c>
       <c r="J24">
-        <v>1.008883331748529</v>
+        <v>1.039010638154146</v>
       </c>
       <c r="K24">
-        <v>1.01742733354762</v>
+        <v>1.037560804410867</v>
       </c>
       <c r="L24">
-        <v>1.01054838710749</v>
+        <v>1.049306532659769</v>
       </c>
       <c r="M24">
-        <v>1.010409651705961</v>
+        <v>1.055681717739066</v>
       </c>
       <c r="N24">
-        <v>1.010316061800147</v>
+        <v>1.040486152436511</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9911158365333084</v>
+        <v>1.034784493144976</v>
       </c>
       <c r="D25">
-        <v>1.011026364848477</v>
+        <v>1.035615865355015</v>
       </c>
       <c r="E25">
-        <v>1.006544725304423</v>
+        <v>1.047993516906357</v>
       </c>
       <c r="F25">
-        <v>1.007498176789567</v>
+        <v>1.054637321268881</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042771538236539</v>
+        <v>1.032965995712148</v>
       </c>
       <c r="J25">
-        <v>1.015945932439889</v>
+        <v>1.040383419142842</v>
       </c>
       <c r="K25">
-        <v>1.023455888587355</v>
+        <v>1.038668973433936</v>
       </c>
       <c r="L25">
-        <v>1.019042285359029</v>
+        <v>1.051008212138918</v>
       </c>
       <c r="M25">
-        <v>1.019981197758535</v>
+        <v>1.057631803657777</v>
       </c>
       <c r="N25">
-        <v>1.017388692194581</v>
+        <v>1.041860882931671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_122/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036366119186613</v>
+        <v>0.9990916118931646</v>
       </c>
       <c r="D2">
-        <v>1.03675451196062</v>
+        <v>1.016779247820353</v>
       </c>
       <c r="E2">
-        <v>1.049606669417961</v>
+        <v>1.014231083033597</v>
       </c>
       <c r="F2">
-        <v>1.056448385976435</v>
+        <v>1.016021629508966</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033266918840126</v>
+        <v>1.045031704315122</v>
       </c>
       <c r="J2">
-        <v>1.041474828900946</v>
+        <v>1.021299526679843</v>
       </c>
       <c r="K2">
-        <v>1.039547348927932</v>
+        <v>1.028009667495051</v>
       </c>
       <c r="L2">
-        <v>1.052363258609685</v>
+        <v>1.025495653560724</v>
       </c>
       <c r="M2">
-        <v>1.059186068828082</v>
+        <v>1.027262180409244</v>
       </c>
       <c r="N2">
-        <v>1.042953842616818</v>
+        <v>1.022749889152419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037513624083608</v>
+        <v>1.004675372868947</v>
       </c>
       <c r="D3">
-        <v>1.037579487872779</v>
+        <v>1.02080751078018</v>
       </c>
       <c r="E3">
-        <v>1.050777947643711</v>
+        <v>1.019624889772573</v>
       </c>
       <c r="F3">
-        <v>1.05776394337133</v>
+        <v>1.0220050822131</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033480814666864</v>
+        <v>1.046579702370033</v>
       </c>
       <c r="J3">
-        <v>1.042265270926398</v>
+        <v>1.025039388909309</v>
       </c>
       <c r="K3">
-        <v>1.040181951009288</v>
+        <v>1.031180901819358</v>
       </c>
       <c r="L3">
-        <v>1.053345890141792</v>
+        <v>1.030012676341622</v>
       </c>
       <c r="M3">
-        <v>1.060313989994319</v>
+        <v>1.032363937908491</v>
       </c>
       <c r="N3">
-        <v>1.043745407160612</v>
+        <v>1.026495062415222</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038255734688324</v>
+        <v>1.008199268744939</v>
       </c>
       <c r="D4">
-        <v>1.03811248070693</v>
+        <v>1.023349462734906</v>
       </c>
       <c r="E4">
-        <v>1.051535847457616</v>
+        <v>1.023034517938783</v>
       </c>
       <c r="F4">
-        <v>1.058615471772264</v>
+        <v>1.025788652279875</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033617091008566</v>
+        <v>1.04754030816447</v>
       </c>
       <c r="J4">
-        <v>1.042775812769769</v>
+        <v>1.027395536692033</v>
       </c>
       <c r="K4">
-        <v>1.04059111487002</v>
+        <v>1.033174016937721</v>
       </c>
       <c r="L4">
-        <v>1.053981148218219</v>
+        <v>1.032862663555537</v>
       </c>
       <c r="M4">
-        <v>1.061043558205735</v>
+        <v>1.035585483708526</v>
       </c>
       <c r="N4">
-        <v>1.04425667403196</v>
+        <v>1.028854556198051</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038567623322632</v>
+        <v>1.009660298818234</v>
       </c>
       <c r="D5">
-        <v>1.038336354339919</v>
+        <v>1.024403220806652</v>
       </c>
       <c r="E5">
-        <v>1.051854470842395</v>
+        <v>1.024449484763658</v>
       </c>
       <c r="F5">
-        <v>1.058973521760297</v>
+        <v>1.027359115489943</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033673871953995</v>
+        <v>1.04793459593616</v>
       </c>
       <c r="J5">
-        <v>1.042990223389462</v>
+        <v>1.028371390892822</v>
       </c>
       <c r="K5">
-        <v>1.040762776678862</v>
+        <v>1.033998331351679</v>
       </c>
       <c r="L5">
-        <v>1.054248075256152</v>
+        <v>1.034044082430946</v>
       </c>
       <c r="M5">
-        <v>1.06135020486955</v>
+        <v>1.036921571316442</v>
       </c>
       <c r="N5">
-        <v>1.044471389139326</v>
+        <v>1.029831796223738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03861998528982</v>
+        <v>1.009904440991375</v>
       </c>
       <c r="D6">
-        <v>1.038373932186733</v>
+        <v>1.024579295344088</v>
       </c>
       <c r="E6">
-        <v>1.051907969281386</v>
+        <v>1.024686005896356</v>
       </c>
       <c r="F6">
-        <v>1.059033643932155</v>
+        <v>1.027621648016268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033683375838186</v>
+        <v>1.048000246239506</v>
       </c>
       <c r="J6">
-        <v>1.043026210928163</v>
+        <v>1.028534397620169</v>
       </c>
       <c r="K6">
-        <v>1.040791578896891</v>
+        <v>1.034135954492066</v>
       </c>
       <c r="L6">
-        <v>1.054292885567655</v>
+        <v>1.034241487712116</v>
       </c>
       <c r="M6">
-        <v>1.061401688490965</v>
+        <v>1.037144858806476</v>
       </c>
       <c r="N6">
-        <v>1.044507427784459</v>
+        <v>1.029995034439334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038259902529592</v>
+        <v>1.008218870131159</v>
       </c>
       <c r="D7">
-        <v>1.038115472889513</v>
+        <v>1.023363600813117</v>
       </c>
       <c r="E7">
-        <v>1.051540104908309</v>
+        <v>1.0230534961858</v>
       </c>
       <c r="F7">
-        <v>1.058620255786642</v>
+        <v>1.025809714851201</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033617851720912</v>
+        <v>1.047545613831472</v>
       </c>
       <c r="J7">
-        <v>1.042778678603095</v>
+        <v>1.027408632979432</v>
       </c>
       <c r="K7">
-        <v>1.040593410001078</v>
+        <v>1.0331850842248</v>
       </c>
       <c r="L7">
-        <v>1.05398471544132</v>
+        <v>1.032878514495073</v>
       </c>
       <c r="M7">
-        <v>1.061047655882531</v>
+        <v>1.035603407248433</v>
       </c>
       <c r="N7">
-        <v>1.044259543935098</v>
+        <v>1.02886767108368</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03675400795476</v>
+        <v>1.000997714044352</v>
       </c>
       <c r="D8">
-        <v>1.03703348668892</v>
+        <v>1.018154360524156</v>
       </c>
       <c r="E8">
-        <v>1.05000250819363</v>
+        <v>1.016071139808973</v>
       </c>
       <c r="F8">
-        <v>1.056892928860897</v>
+        <v>1.018062602014898</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033339646643573</v>
+        <v>1.045563530431913</v>
       </c>
       <c r="J8">
-        <v>1.04174215488349</v>
+        <v>1.022577014272653</v>
       </c>
       <c r="K8">
-        <v>1.03976211943519</v>
+        <v>1.029093908850168</v>
       </c>
       <c r="L8">
-        <v>1.052695462245807</v>
+        <v>1.027037730284681</v>
       </c>
       <c r="M8">
-        <v>1.059567312246512</v>
+        <v>1.029003338536072</v>
       </c>
       <c r="N8">
-        <v>1.04322154823292</v>
+        <v>1.024029190924143</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034097282994934</v>
+        <v>0.9875449406170836</v>
       </c>
       <c r="D9">
-        <v>1.035120586224591</v>
+        <v>1.008451772683802</v>
       </c>
       <c r="E9">
-        <v>1.047293044777958</v>
+        <v>1.003110035528256</v>
       </c>
       <c r="F9">
-        <v>1.053851187693952</v>
+        <v>1.003690331615238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032833112822083</v>
+        <v>1.041742970015958</v>
       </c>
       <c r="J9">
-        <v>1.039908533325197</v>
+        <v>1.013545317656354</v>
       </c>
       <c r="K9">
-        <v>1.038286035434325</v>
+        <v>1.021409198065941</v>
       </c>
       <c r="L9">
-        <v>1.050419217990098</v>
+        <v>1.016152855297878</v>
       </c>
       <c r="M9">
-        <v>1.056956611499878</v>
+        <v>1.016723818168452</v>
       </c>
       <c r="N9">
-        <v>1.041385322721695</v>
+        <v>1.014984668262699</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032323918061507</v>
+        <v>0.9780178342251021</v>
       </c>
       <c r="D10">
-        <v>1.033841065450837</v>
+        <v>1.001588305748519</v>
       </c>
       <c r="E10">
-        <v>1.04548663998973</v>
+        <v>0.9939655724360502</v>
       </c>
       <c r="F10">
-        <v>1.051824616758407</v>
+        <v>0.9935541165672029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032484463323707</v>
+        <v>1.038954943000833</v>
       </c>
       <c r="J10">
-        <v>1.038681270974726</v>
+        <v>1.007131592536801</v>
       </c>
       <c r="K10">
-        <v>1.037294395419505</v>
+        <v>1.015928941938975</v>
       </c>
       <c r="L10">
-        <v>1.048898682844533</v>
+        <v>1.008444641853396</v>
       </c>
       <c r="M10">
-        <v>1.055214612546413</v>
+        <v>1.008040736967197</v>
       </c>
       <c r="N10">
-        <v>1.040156317517917</v>
+        <v>1.008561834917812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031555483021681</v>
+        <v>0.9737426921944003</v>
       </c>
       <c r="D11">
-        <v>1.03328600507769</v>
+        <v>0.9985118362966187</v>
       </c>
       <c r="E11">
-        <v>1.044704404938441</v>
+        <v>0.9898709759545142</v>
       </c>
       <c r="F11">
-        <v>1.050947362188706</v>
+        <v>0.9890159096381568</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032330893789302</v>
+        <v>1.037685391518459</v>
       </c>
       <c r="J11">
-        <v>1.038148690653748</v>
+        <v>1.004250125486872</v>
       </c>
       <c r="K11">
-        <v>1.036863199110112</v>
+        <v>1.013461871879777</v>
       </c>
       <c r="L11">
-        <v>1.048239536948772</v>
+        <v>1.004986472661967</v>
       </c>
       <c r="M11">
-        <v>1.054459923725731</v>
+        <v>1.004147985832909</v>
       </c>
       <c r="N11">
-        <v>1.039622980871796</v>
+        <v>1.005676275854163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031269966350654</v>
+        <v>0.9721305593226316</v>
       </c>
       <c r="D12">
-        <v>1.033079677238012</v>
+        <v>0.9973523707069417</v>
       </c>
       <c r="E12">
-        <v>1.044413838761693</v>
+        <v>0.9883283157457642</v>
       </c>
       <c r="F12">
-        <v>1.050621548182855</v>
+        <v>0.9873061444108283</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032273460139957</v>
+        <v>1.037203973492256</v>
       </c>
       <c r="J12">
-        <v>1.03795069001994</v>
+        <v>1.003163098211264</v>
       </c>
       <c r="K12">
-        <v>1.036702761052387</v>
+        <v>1.012530471513492</v>
       </c>
       <c r="L12">
-        <v>1.047994587474765</v>
+        <v>1.003682595863977</v>
       </c>
       <c r="M12">
-        <v>1.054179537937757</v>
+        <v>1.00268064751074</v>
       </c>
       <c r="N12">
-        <v>1.039424699054377</v>
+        <v>1.004587704875139</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031331214556985</v>
+        <v>0.9724774884796331</v>
       </c>
       <c r="D13">
-        <v>1.033123942224298</v>
+        <v>0.9976018544328105</v>
       </c>
       <c r="E13">
-        <v>1.044476166639893</v>
+        <v>0.9886602306549421</v>
       </c>
       <c r="F13">
-        <v>1.05069143473712</v>
+        <v>0.987674012691003</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032285797552943</v>
+        <v>1.037307693365909</v>
       </c>
       <c r="J13">
-        <v>1.037993169837916</v>
+        <v>1.003397044008768</v>
       </c>
       <c r="K13">
-        <v>1.036737187904738</v>
+        <v>1.012730954916637</v>
       </c>
       <c r="L13">
-        <v>1.048047135122161</v>
+        <v>1.003963179456823</v>
       </c>
       <c r="M13">
-        <v>1.054239684421053</v>
+        <v>1.002996389258456</v>
       </c>
       <c r="N13">
-        <v>1.039467239198567</v>
+        <v>1.00482198290251</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031531883884682</v>
+        <v>0.9736099356043839</v>
       </c>
       <c r="D14">
-        <v>1.033268953092794</v>
+        <v>0.9984163419980988</v>
       </c>
       <c r="E14">
-        <v>1.044680386846535</v>
+        <v>0.9897439117358933</v>
       </c>
       <c r="F14">
-        <v>1.050920429551512</v>
+        <v>0.9888750811857512</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032326154284967</v>
+        <v>1.037645801276207</v>
       </c>
       <c r="J14">
-        <v>1.03813232746875</v>
+        <v>1.004160619057492</v>
       </c>
       <c r="K14">
-        <v>1.036849942814067</v>
+        <v>1.013385193872748</v>
       </c>
       <c r="L14">
-        <v>1.048219291669887</v>
+        <v>1.004879096431027</v>
       </c>
       <c r="M14">
-        <v>1.054436748199477</v>
+        <v>1.004027140428097</v>
       </c>
       <c r="N14">
-        <v>1.039606594449198</v>
+        <v>1.005586642315387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031655511463559</v>
+        <v>0.9743044210755132</v>
       </c>
       <c r="D15">
-        <v>1.03335827869116</v>
+        <v>0.9989159258968831</v>
       </c>
       <c r="E15">
-        <v>1.044806212377476</v>
+        <v>0.9904086758338781</v>
       </c>
       <c r="F15">
-        <v>1.051061525702511</v>
+        <v>0.9896118567261284</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032350967571643</v>
+        <v>1.037852800122465</v>
       </c>
       <c r="J15">
-        <v>1.038218043642982</v>
+        <v>1.004628833743423</v>
       </c>
       <c r="K15">
-        <v>1.036919378699342</v>
+        <v>1.013786273782963</v>
       </c>
       <c r="L15">
-        <v>1.048325347935922</v>
+        <v>1.005440818130332</v>
       </c>
       <c r="M15">
-        <v>1.054558157589399</v>
+        <v>1.004659339883753</v>
       </c>
       <c r="N15">
-        <v>1.039692432350229</v>
+        <v>1.006055521919876</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032374904664133</v>
+        <v>0.9782982676768948</v>
       </c>
       <c r="D16">
-        <v>1.033877881455291</v>
+        <v>1.00179019324273</v>
       </c>
       <c r="E16">
-        <v>1.045538553153522</v>
+        <v>0.994234351455023</v>
       </c>
       <c r="F16">
-        <v>1.051882842624554</v>
+        <v>0.9938520213930493</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032494600392853</v>
+        <v>1.039037845409245</v>
       </c>
       <c r="J16">
-        <v>1.038716591876735</v>
+        <v>1.00732054112473</v>
       </c>
       <c r="K16">
-        <v>1.037322974314394</v>
+        <v>1.016090617302408</v>
       </c>
       <c r="L16">
-        <v>1.048942412377281</v>
+        <v>1.008671506243935</v>
       </c>
       <c r="M16">
-        <v>1.055264690341931</v>
+        <v>1.008296166790016</v>
       </c>
       <c r="N16">
-        <v>1.040191688579658</v>
+        <v>1.008751051834408</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032826010590239</v>
+        <v>0.9807622740968128</v>
       </c>
       <c r="D17">
-        <v>1.034203541230458</v>
+        <v>1.003564464099235</v>
       </c>
       <c r="E17">
-        <v>1.045997916588239</v>
+        <v>0.996596966190875</v>
       </c>
       <c r="F17">
-        <v>1.052398102121705</v>
+        <v>0.9964707049980749</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032584000723579</v>
+        <v>1.0397641787286</v>
       </c>
       <c r="J17">
-        <v>1.03902900458596</v>
+        <v>1.008980344811731</v>
       </c>
       <c r="K17">
-        <v>1.037575654219314</v>
+        <v>1.017510282668749</v>
       </c>
       <c r="L17">
-        <v>1.04932928028669</v>
+        <v>1.010664927176059</v>
       </c>
       <c r="M17">
-        <v>1.055707773445878</v>
+        <v>1.010540899819249</v>
       </c>
       <c r="N17">
-        <v>1.040504544950764</v>
+        <v>1.010413212633028</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033089079509506</v>
+        <v>0.9821851487774078</v>
       </c>
       <c r="D18">
-        <v>1.034393394744269</v>
+        <v>1.00458935321431</v>
       </c>
       <c r="E18">
-        <v>1.04626585081602</v>
+        <v>0.9979621214572827</v>
       </c>
       <c r="F18">
-        <v>1.052698669895432</v>
+        <v>0.9979838676406922</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032635895380184</v>
+        <v>1.04018185921645</v>
       </c>
       <c r="J18">
-        <v>1.039211117053682</v>
+        <v>1.009938494893693</v>
       </c>
       <c r="K18">
-        <v>1.037722863574654</v>
+        <v>1.0183293358897</v>
       </c>
       <c r="L18">
-        <v>1.049554862097837</v>
+        <v>1.011816124300712</v>
       </c>
       <c r="M18">
-        <v>1.055966178650981</v>
+        <v>1.011837493140703</v>
       </c>
       <c r="N18">
-        <v>1.040686916039079</v>
+        <v>1.011372723398007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033178770195906</v>
+        <v>0.9826679275432845</v>
       </c>
       <c r="D19">
-        <v>1.034458113225228</v>
+        <v>1.004937145024269</v>
       </c>
       <c r="E19">
-        <v>1.046357208721163</v>
+        <v>0.9984254552745161</v>
       </c>
       <c r="F19">
-        <v>1.052801160154326</v>
+        <v>0.998497444319169</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03265354754053</v>
+        <v>1.040323277660285</v>
       </c>
       <c r="J19">
-        <v>1.039273193638795</v>
+        <v>1.01026353605631</v>
       </c>
       <c r="K19">
-        <v>1.037773028572739</v>
+        <v>1.018607108575178</v>
       </c>
       <c r="L19">
-        <v>1.049631767551845</v>
+        <v>1.012206733178553</v>
       </c>
       <c r="M19">
-        <v>1.056054281815671</v>
+        <v>1.012277481340048</v>
       </c>
       <c r="N19">
-        <v>1.040749080780064</v>
+        <v>1.011698226156357</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032777616745862</v>
+        <v>0.98049940400173</v>
       </c>
       <c r="D20">
-        <v>1.034168611192355</v>
+        <v>1.003375144406445</v>
       </c>
       <c r="E20">
-        <v>1.045948631736776</v>
+        <v>0.9963448262980781</v>
       </c>
       <c r="F20">
-        <v>1.052342817019371</v>
+        <v>0.9961912326845489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032574434881883</v>
+        <v>1.039686871691509</v>
       </c>
       <c r="J20">
-        <v>1.038995497311775</v>
+        <v>1.008803303720154</v>
       </c>
       <c r="K20">
-        <v>1.037548562116875</v>
+        <v>1.017358904463409</v>
       </c>
       <c r="L20">
-        <v>1.049287780447909</v>
+        <v>1.010452253472203</v>
       </c>
       <c r="M20">
-        <v>1.055660238732218</v>
+        <v>1.01030138693593</v>
       </c>
       <c r="N20">
-        <v>1.040470990092407</v>
+        <v>1.010235920122792</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031472794151421</v>
+        <v>0.973277138936546</v>
       </c>
       <c r="D21">
-        <v>1.033226255253722</v>
+        <v>0.9981769661648358</v>
       </c>
       <c r="E21">
-        <v>1.044620249355255</v>
+        <v>0.9894254073990754</v>
       </c>
       <c r="F21">
-        <v>1.050852995272011</v>
+        <v>0.9885220751535491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032314281030525</v>
+        <v>1.037546512982003</v>
       </c>
       <c r="J21">
-        <v>1.03809135389904</v>
+        <v>1.003936235828497</v>
       </c>
       <c r="K21">
-        <v>1.036816746832763</v>
+        <v>1.013192958987156</v>
       </c>
       <c r="L21">
-        <v>1.048168598998633</v>
+        <v>1.004609926839253</v>
       </c>
       <c r="M21">
-        <v>1.054378719520911</v>
+        <v>1.003724212721342</v>
       </c>
       <c r="N21">
-        <v>1.039565562692319</v>
+        <v>1.005361940436469</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030651903616047</v>
+        <v>0.9685955279895572</v>
       </c>
       <c r="D22">
-        <v>1.032632869114879</v>
+        <v>0.9948113050477411</v>
       </c>
       <c r="E22">
-        <v>1.043784988233613</v>
+        <v>0.984948254273474</v>
       </c>
       <c r="F22">
-        <v>1.049916500470267</v>
+        <v>0.9835599465913053</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032148449184191</v>
+        <v>1.036143518717367</v>
       </c>
       <c r="J22">
-        <v>1.037521860772578</v>
+        <v>1.000778769505789</v>
       </c>
       <c r="K22">
-        <v>1.036355048289723</v>
+        <v>1.010486256570052</v>
       </c>
       <c r="L22">
-        <v>1.047464268681232</v>
+        <v>1.000823904788078</v>
       </c>
       <c r="M22">
-        <v>1.053572625058251</v>
+        <v>0.9994642739551183</v>
       </c>
       <c r="N22">
-        <v>1.038995260820296</v>
+        <v>1.002199990149417</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031087121014747</v>
+        <v>0.9710912654233658</v>
       </c>
       <c r="D23">
-        <v>1.032947518839871</v>
+        <v>0.9966051010387342</v>
       </c>
       <c r="E23">
-        <v>1.044227781704523</v>
+        <v>0.9873342086943234</v>
       </c>
       <c r="F23">
-        <v>1.050412934438926</v>
+        <v>0.9862043552245718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032236574327925</v>
+        <v>1.036892875865112</v>
       </c>
       <c r="J23">
-        <v>1.037823857146814</v>
+        <v>1.002462208924945</v>
       </c>
       <c r="K23">
-        <v>1.036599953153689</v>
+        <v>1.011929734248403</v>
       </c>
       <c r="L23">
-        <v>1.047837710256895</v>
+        <v>1.002842084610766</v>
       </c>
       <c r="M23">
-        <v>1.053999985031557</v>
+        <v>1.001734873059538</v>
       </c>
       <c r="N23">
-        <v>1.039297686064023</v>
+        <v>1.003885820245641</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032799484005875</v>
+        <v>0.980618227871658</v>
       </c>
       <c r="D24">
-        <v>1.034184394876552</v>
+        <v>1.003460720694552</v>
       </c>
       <c r="E24">
-        <v>1.045970901453687</v>
+        <v>0.9964587972746026</v>
       </c>
       <c r="F24">
-        <v>1.052367797897586</v>
+        <v>0.9963175581727619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032578758049534</v>
+        <v>1.039721821849923</v>
       </c>
       <c r="J24">
-        <v>1.039010638154146</v>
+        <v>1.008883331748529</v>
       </c>
       <c r="K24">
-        <v>1.037560804410867</v>
+        <v>1.01742733354762</v>
       </c>
       <c r="L24">
-        <v>1.049306532659769</v>
+        <v>1.010548387107491</v>
       </c>
       <c r="M24">
-        <v>1.055681717739066</v>
+        <v>1.010409651705962</v>
       </c>
       <c r="N24">
-        <v>1.040486152436511</v>
+        <v>1.010316061800148</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034784493144976</v>
+        <v>0.9911158365333076</v>
       </c>
       <c r="D25">
-        <v>1.035615865355015</v>
+        <v>1.011026364848477</v>
       </c>
       <c r="E25">
-        <v>1.047993516906357</v>
+        <v>1.006544725304423</v>
       </c>
       <c r="F25">
-        <v>1.054637321268881</v>
+        <v>1.007498176789567</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032965995712148</v>
+        <v>1.042771538236538</v>
       </c>
       <c r="J25">
-        <v>1.040383419142842</v>
+        <v>1.015945932439889</v>
       </c>
       <c r="K25">
-        <v>1.038668973433936</v>
+        <v>1.023455888587355</v>
       </c>
       <c r="L25">
-        <v>1.051008212138918</v>
+        <v>1.019042285359028</v>
       </c>
       <c r="M25">
-        <v>1.057631803657777</v>
+        <v>1.019981197758534</v>
       </c>
       <c r="N25">
-        <v>1.041860882931671</v>
+        <v>1.017388692194581</v>
       </c>
     </row>
   </sheetData>
